--- a/resources/Excel/Sky/2024年光遇复刻记录.xlsx
+++ b/resources/Excel/Sky/2024年光遇复刻记录.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\.Xlsx\光遇复刻记录\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gitee\resources\resources\Excel\Sky\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9EFAEB-D2A5-4E5B-A554-48152E594053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E4ADA8-C8CC-4433-8855-9CBE21757FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{7F925877-F9BA-4425-AC38-52049D26A3E8}"/>
   </bookViews>
@@ -180,6 +180,210 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>小王子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">安卓一次复刻 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">位,二次复刻 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 位,三次复刻 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 位,四次复刻 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 位</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IOS一次复刻 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 位,二次复刻 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">位,三次复刻 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 位,四次复刻 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 位</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沾沾自喜的自恋狂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">2024年共复刻 </t>
     </r>
@@ -193,7 +397,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>15</t>
+      <t>16</t>
     </r>
     <r>
       <rPr>
@@ -206,210 +410,6 @@
       </rPr>
       <t xml:space="preserve"> 位先祖</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小王子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">安卓一次复刻 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">位,二次复刻 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 位,三次复刻 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 位,四次复刻 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 位</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">IOS一次复刻 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 位,二次复刻 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">位,三次复刻 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 位,四次复刻 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 位</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沾沾自喜的自恋狂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -806,7 +806,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1273,7 +1273,7 @@
         <v>27</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="1">
@@ -1289,12 +1289,12 @@
         <v>13</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1308,7 +1308,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1336,6 +1336,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A3:A18"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="D1:E2"/>
     <mergeCell ref="A21:J21"/>
     <mergeCell ref="A19:J19"/>
     <mergeCell ref="A20:J20"/>
@@ -1351,22 +1366,7 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="D1:E2"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="A3:A18"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/Excel/Sky/2024年光遇复刻记录.xlsx
+++ b/resources/Excel/Sky/2024年光遇复刻记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gitee\resources\resources\Excel\Sky\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E4ADA8-C8CC-4433-8855-9CBE21757FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43675C1B-60DE-445C-A962-25DA9F7343CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{7F925877-F9BA-4425-AC38-52049D26A3E8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>年</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,6 +184,80 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>沾沾自喜的自恋狂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">未更新属正常现象 催更进行了 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>企鹅</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>群催更：392665563</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风先知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2024年共复刻 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 位先祖</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热血运动员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">安卓一次复刻 </t>
     </r>
@@ -220,6 +294,81 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 位,三次复刻 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 位,四次复刻 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 位</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IOS一次复刻 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2</t>
     </r>
     <r>
@@ -231,7 +380,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 位,三次复刻 </t>
+      <t xml:space="preserve"> 位,二次复刻 </t>
     </r>
     <r>
       <rPr>
@@ -243,6 +392,29 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">位,三次复刻 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>9</t>
     </r>
     <r>
@@ -266,7 +438,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3</t>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -278,137 +450,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 位</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">IOS一次复刻 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 位,二次复刻 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">位,三次复刻 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 位,四次复刻 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 位</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沾沾自喜的自恋狂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2024年共复刻 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 位先祖</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -417,7 +458,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,6 +486,23 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -495,6 +553,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -504,6 +567,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -803,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89D7D11-E351-4919-BC55-CEC5CA9A568A}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="D9" sqref="D9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1273,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="1">
@@ -1292,37 +1359,63 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1">
+        <v>11</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>202</v>
+      </c>
+      <c r="I19" s="1">
+        <v>12</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+    </row>
+    <row r="20" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="1">
+        <v>25</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="F20" s="1">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1">
+        <v>125</v>
+      </c>
+      <c r="I20" s="1">
+        <v>13</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1334,10 +1427,61 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="35">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="B16:B18"/>
-    <mergeCell ref="A3:A18"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B10:B12"/>
@@ -1346,14 +1490,14 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A3:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A23:J23"/>
     <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A22:J22"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D4:E4"/>
@@ -1362,11 +1506,6 @@
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D18:E18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/Excel/Sky/2024年光遇复刻记录.xlsx
+++ b/resources/Excel/Sky/2024年光遇复刻记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gitee\resources\resources\Excel\Sky\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43675C1B-60DE-445C-A962-25DA9F7343CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E283FDA2-C859-4CCE-BAFE-1CB0DFE361BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{7F925877-F9BA-4425-AC38-52049D26A3E8}"/>
   </bookViews>
@@ -188,13 +188,250 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">未更新属正常现象 催更进行了 </t>
+    <t>风先知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2024年共复刻 </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 位先祖</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热血运动员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">安卓一次复刻 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">位,二次复刻 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 位,三次复刻 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 位,四次复刻 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 位</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IOS一次复刻 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 位,二次复刻 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">位,三次复刻 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 位,四次复刻 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 位</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">未更新属正常现象 催更就行了 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color rgb="FF0070C0"/>
         <rFont val="等线"/>
         <family val="3"/>
@@ -213,243 +450,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>群催更：392665563</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风先知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2024年共复刻 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 位先祖</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热血运动员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">安卓一次复刻 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">位,二次复刻 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 位,三次复刻 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 位,四次复刻 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 位</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">IOS一次复刻 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 位,二次复刻 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">位,三次复刻 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 位,四次复刻 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 位</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -567,10 +567,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -873,7 +869,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:E9"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1368,7 +1364,7 @@
         <v>11</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="1">
@@ -1384,7 +1380,7 @@
         <v>12</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1394,7 +1390,7 @@
         <v>25</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="1">
@@ -1415,7 +1411,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1429,7 +1425,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1443,7 +1439,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1457,7 +1453,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1471,25 +1467,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D20:E20"/>
@@ -1506,6 +1483,25 @@
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="D1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/Excel/Sky/2024年光遇复刻记录.xlsx
+++ b/resources/Excel/Sky/2024年光遇复刻记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gitee\resources\resources\Excel\Sky\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E283FDA2-C859-4CCE-BAFE-1CB0DFE361BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE12CA9-48BD-49DA-989E-695CE24A558E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{7F925877-F9BA-4425-AC38-52049D26A3E8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>年</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,6 +196,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>热血运动员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">未更新属正常现象 催更就行了 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>企鹅</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>群催更：392665563</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情绪草药师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦虑渔夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发号施令的统治者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小王子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水先知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">2024年共复刻 </t>
     </r>
@@ -209,7 +274,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>18</t>
+      <t>22</t>
     </r>
     <r>
       <rPr>
@@ -225,7 +290,101 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>热血运动员</t>
+    <r>
+      <t xml:space="preserve">IOS一次复刻 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 位,二次复刻 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">位,三次复刻 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 位,四次复刻 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 位</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -242,7 +401,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -265,7 +424,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3</t>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -288,7 +447,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>10</t>
+      <t>11</t>
     </r>
     <r>
       <rPr>
@@ -311,7 +470,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3</t>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -323,133 +482,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 位</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">IOS一次复刻 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 位,二次复刻 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">位,三次复刻 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 位,四次复刻 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 位</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">未更新属正常现象 催更就行了 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>企鹅</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>群催更：392665563</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -866,10 +898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89D7D11-E351-4919-BC55-CEC5CA9A568A}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1390,7 +1422,7 @@
         <v>25</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="1">
@@ -1409,80 +1441,178 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+    <row r="21" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1">
+        <v>8</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="F21" s="1">
+        <v>4</v>
+      </c>
+      <c r="G21" s="1">
+        <v>4</v>
+      </c>
+      <c r="H21" s="1">
+        <v>195</v>
+      </c>
+      <c r="I21" s="1">
+        <v>10</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="1">
+        <v>22</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>228</v>
+      </c>
+      <c r="I22" s="1">
+        <v>13</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="4">
+        <v>9</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>103</v>
+      </c>
+      <c r="I23" s="1">
+        <v>13</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="1">
+        <v>19</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="F24" s="1">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1">
+        <v>3</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A3:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
+  <mergeCells count="41">
+    <mergeCell ref="A3:A24"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="D1:E2"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="D10:E10"/>
@@ -1497,11 +1627,21 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/Excel/Sky/2024年光遇复刻记录.xlsx
+++ b/resources/Excel/Sky/2024年光遇复刻记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gitee\resources\resources\Excel\Sky\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE12CA9-48BD-49DA-989E-695CE24A558E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6145097C-6FE3-4904-B086-BC72EE89187D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{7F925877-F9BA-4425-AC38-52049D26A3E8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>年</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,6 +261,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>老练的音乐家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表演</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敬礼护卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">2024年共复刻 </t>
     </r>
@@ -274,7 +286,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>22</t>
+      <t>24</t>
     </r>
     <r>
       <rPr>
@@ -291,6 +303,104 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">安卓一次复刻 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">位,二次复刻 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 位,三次复刻 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 位,四次复刻 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 位</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">IOS一次复刻 </t>
     </r>
     <r>
@@ -303,7 +413,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3</t>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -372,105 +482,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 位</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">安卓一次复刻 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">位,二次复刻 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 位,三次复刻 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 位,四次复刻 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
+      <t>6</t>
     </r>
     <r>
       <rPr>
@@ -898,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89D7D11-E351-4919-BC55-CEC5CA9A568A}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1539,41 +1551,73 @@
       <c r="G24" s="1">
         <v>3</v>
       </c>
+      <c r="H24" s="1">
+        <v>201</v>
+      </c>
+      <c r="I24" s="1">
+        <v>13</v>
+      </c>
       <c r="J24" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="1">
+        <v>28</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>237</v>
+      </c>
+      <c r="I25" s="1">
+        <v>13</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="3"/>
+      <c r="B26" s="2">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="F26" s="1">
+        <v>4</v>
+      </c>
+      <c r="G26" s="1">
+        <v>3</v>
+      </c>
+      <c r="H26" s="1">
+        <v>145</v>
+      </c>
+      <c r="I26" s="1">
+        <v>13</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1587,7 +1631,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1599,20 +1643,70 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="A3:A24"/>
+  <mergeCells count="43">
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A3:A26"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="D1:E2"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="D1:E2"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="D10:E10"/>
@@ -1622,26 +1716,6 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
